--- a/favori/text/01/Прайс-лист.xlsx
+++ b/favori/text/01/Прайс-лист.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Наименование</t>
   </si>
@@ -114,13 +115,127 @@
   </si>
   <si>
     <t>Лазерная эпиляция</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>Кто проводил</t>
+  </si>
+  <si>
+    <t>Медицинская сестра</t>
+  </si>
+  <si>
+    <t>Мариупольское медицинское училище</t>
+  </si>
+  <si>
+    <t>Миндальные и ретиноловые пилинги пилинги «Amigopeel»</t>
+  </si>
+  <si>
+    <t>Лаборатория косметики «Аркадия»</t>
+  </si>
+  <si>
+    <t>Восковая эпиляция «Depileve»</t>
+  </si>
+  <si>
+    <t>WAXING ACADEMY</t>
+  </si>
+  <si>
+    <t>Комбинированные методики в мезотерапии. Решение эстетических проблем лица, тела и волос.</t>
+  </si>
+  <si>
+    <t>Учебный центр «Top Cosmetics»</t>
+  </si>
+  <si>
+    <t>Дерматология в косметологии</t>
+  </si>
+  <si>
+    <t>Christina Miriam Zehavi</t>
+  </si>
+  <si>
+    <t>Как работать канюлей с филлерами и ревитализантами.</t>
+  </si>
+  <si>
+    <t>Учебный центр FloSal</t>
+  </si>
+  <si>
+    <t>Ревитализация, мезотерапия лица и тела препаратами Veluderm</t>
+  </si>
+  <si>
+    <t>Консультативно-методологический центр «Veluderm»</t>
+  </si>
+  <si>
+    <t>Бустре-ревитализация, пептидотерапия, применение полинуклеотидов, коктейлей для лица и тела.</t>
+  </si>
+  <si>
+    <t>Консультативно-методологический центр «Nanorma»</t>
+  </si>
+  <si>
+    <t>Лечение угревой болезни, антивозрастная терапия.</t>
+  </si>
+  <si>
+    <t>Консультативно-методологический центр «Briliance SAS»</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Уход за кожей профессиональными косметологическими препаратами</t>
+  </si>
+  <si>
+    <t>Эстетический центр «ЮНОНА»</t>
+  </si>
+  <si>
+    <t>Косметология</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Ароматерапия и натуропатия в косметологии</t>
+  </si>
+  <si>
+    <t>STYX-Ukraine</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Центр обучения «Prime Laser System»</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Нейропротеин и филлеры</t>
+  </si>
+  <si>
+    <t>Обучающий косметологический центр «NANO BEAUTY GROUP»</t>
+  </si>
+  <si>
+    <t>FloSal-ревитализация</t>
+  </si>
+  <si>
+    <t>Пирсинг оборудованием ТМ «Caflon»</t>
+  </si>
+  <si>
+    <t>Студия тату «Золотой дракон»</t>
+  </si>
+  <si>
+    <t>Антикуперозная программа и уход за кожей век.</t>
+  </si>
+  <si>
+    <t>Holy Land</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +247,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +308,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -719,4 +850,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>